--- a/biology/Botanique/Coelogyne_viscosa/Coelogyne_viscosa.xlsx
+++ b/biology/Botanique/Coelogyne_viscosa/Coelogyne_viscosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coelogyne viscosa est une espèce d'orchidées du genre Coelogyne originaire d'Asie du Sud-Est.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C.viscosa est une orchidée formant des pseudobulbes légèrement striés et brillants, portant 2 feuilles apicales lancéolées, d'où sortent de courtes hampes florales de 7 à 15cm portant 2 à 4 fleurs[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C.viscosa est une orchidée formant des pseudobulbes légèrement striés et brillants, portant 2 feuilles apicales lancéolées, d'où sortent de courtes hampes florales de 7 à 15cm portant 2 à 4 fleurs.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce que l'on peut trouver dans le nord-est de l'Inde, le Myanmar, le sud de la Chine, le Laos, le Vietnam, la Thaïlande et la Malaisie péninsulaire à des altitudes de 700 à 1500 mètres dans les basses forêts à feuilles persistantes et les forêts primaires de montagne en tant qu'épiphyte ou lithophyte[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce que l'on peut trouver dans le nord-est de l'Inde, le Myanmar, le sud de la Chine, le Laos, le Vietnam, la Thaïlande et la Malaisie péninsulaire à des altitudes de 700 à 1500 mètres dans les basses forêts à feuilles persistantes et les forêts primaires de montagne en tant qu'épiphyte ou lithophyte.
 </t>
         </is>
       </c>
